--- a/gráficosNodes2.xlsx
+++ b/gráficosNodes2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="714" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="714"/>
   </bookViews>
   <sheets>
     <sheet name="19KBytes-641" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="34">
   <si>
     <t>Repetição</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Sem tempo</t>
+  </si>
+  <si>
+    <t>Walltime</t>
   </si>
 </sst>
 </file>
@@ -291,7 +294,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="310">
+  <cellStyleXfs count="428">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -602,6 +605,124 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -682,7 +803,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="310">
+  <cellStyles count="428">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -837,6 +958,65 @@
     <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -991,6 +1171,65 @@
     <cellStyle name="Hyperlink" xfId="304" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="79"/>
   </cellStyles>
@@ -1171,11 +1410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117290424"/>
-        <c:axId val="2117296344"/>
+        <c:axId val="2092155352"/>
+        <c:axId val="2092162520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117290424"/>
+        <c:axId val="2092155352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117296344"/>
+        <c:crossAx val="2092162520"/>
         <c:crossesAt val="0.001"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1269,7 +1508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117296344"/>
+        <c:axId val="2092162520"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1366,7 +1605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117290424"/>
+        <c:crossAx val="2092155352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1455,11 +1694,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Tempo de execução</a:t>
+              <a:t>Speed Up</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1471,182 +1711,510 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.134063018534086"/>
-          <c:y val="0.184392842747429"/>
-          <c:w val="0.818983376099787"/>
-          <c:h val="0.659612492077575"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Nodes 1</c:v>
+            <c:v>32 Processos</c:v>
           </c:tx>
-          <c:spPr>
-            <a:effectLst>
-              <a:glow>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:glow>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'CacheLvL3-641'!$B$19:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NP=8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>'CacheLvL3-641'!$K$6:$K$12</c:f>
+              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.822172</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.851006</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.361065</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.694145</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8383</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.944672</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.067712</c:v>
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$N$61:$N$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.438407586596648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.131074056156276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.053467240592863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D908-4175-BFB1-F8954C10E214}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Nodes 2</c:v>
+            <c:v>24 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$N$50:$N$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00169704658517754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000533980876970185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000242508251675754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000116262427560109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>16 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$N$39:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.840233323682997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.289181658824615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.173450618336037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0795117201174464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0578890420012785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0438471524334971</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$N$28:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.894101145711528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35122717306886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.228640394441313</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.113884754712188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0758205203911613</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.055097341961833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$N$17:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.944310885366143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.451897052830682</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.321963448463347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.173430717567524</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.113491377094235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0880705854895076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$N$6:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.966117747700956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.604065198943474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.485302025505491</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.289670577458338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.208425947708707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.162237317353472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:prstDash val="sysDot"/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'CacheLvL3-641'!$B$19:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NP=8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>'CacheLvL3-641'!$K$19:$K$25</c:f>
+              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.040456</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.460349</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.711048</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.142861</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.338661</c:v>
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$O$6:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D908-4175-BFB1-F8954C10E214}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1654,11 +2222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2119846584"/>
-        <c:axId val="2119853000"/>
+        <c:axId val="2045683896"/>
+        <c:axId val="2045690264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2119846584"/>
+        <c:axId val="2045683896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,402 +2253,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Número de processos</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.404969835637742"/>
-              <c:y val="0.824458908040861"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2119853000"/>
-        <c:crossesAt val="0.01"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2119853000"/>
-        <c:scaling>
-          <c:logBase val="10.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tempo (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.0106241690979562"/>
-              <c:y val="0.404535990137648"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2119846584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Speed Up</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Tempo ideal</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cmpd="sng">
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-B6DC-4A98-BA4D-C5165C2C4F14}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'CacheLvL3-641'!$B$19:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NP=8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'CacheLvL3-641'!$O$6:$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B6DC-4A98-BA4D-C5165C2C4F14}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2119893880"/>
-        <c:axId val="2119900248"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2119893880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Número de processos</a:t>
+                  <a:t>Número de Threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2139,7 +2312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119900248"/>
+        <c:crossAx val="2045690264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2147,7 +2320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119900248"/>
+        <c:axId val="2045690264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119893880"/>
+        <c:crossAx val="2045683896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2261,8 +2434,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.37408463717704"/>
           <c:y val="0.881193405781484"/>
-          <c:w val="0.481945134635948"/>
-          <c:h val="0.0713681719824617"/>
+          <c:w val="0.581551371822467"/>
+          <c:h val="0.118806573920874"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2304,38 +2477,28 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -2344,47 +2507,26 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Tempo execução</c:v>
+            <c:v>32 Processos</c:v>
           </c:tx>
-          <c:spPr>
-            <a:effectLst>
-              <a:glow>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:glow>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL3-662'!$B$6:$B$12</c:f>
+              <c:f>'CacheLvL3-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2414,61 +2556,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL3-662'!$K$6:$K$12</c:f>
+              <c:f>'CacheLvL3-641'!$K$61:$K$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.901112</c:v>
+                  <c:v>98.40324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.939414</c:v>
+                  <c:v>224.456061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.51889</c:v>
+                  <c:v>750.745364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.889479</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.107186</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.375769</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.628663</c:v>
+                  <c:v>1840.4398452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9BEA-4D85-AE35-B52C834A6438}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Tempo ideal</c:v>
+            <c:v>24 Processos</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL3-662'!$B$6:$B$12</c:f>
+              <c:f>'CacheLvL3-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2498,40 +2615,300 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL3-662'!$M$6:$M$12</c:f>
+              <c:f>'CacheLvL3-641'!$K$50:$K$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.329073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193.909232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>616.263642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1356.955888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2830.4329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>16 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.901112</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.450556</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.225278</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.112639</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0563195</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0375463333333333</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02815975</c:v>
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$K$39:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.235083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.279783</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.812925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.355331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.956583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.060924</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.36142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9BEA-4D85-AE35-B52C834A6438}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$B$61:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$K$28:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.306615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.342931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.872982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.341036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.692327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.043958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.564969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$B$61:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$K$17:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.470179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.497907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.040456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.460349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.711048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.142861</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.338661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$B$61:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-641'!$K$6:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.822172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.851006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.361065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.694145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.944672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.067712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2541,13 +2918,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2119959144"/>
-        <c:axId val="2119965560"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="2124155448"/>
+        <c:axId val="2124121672"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2119959144"/>
+        <c:axId val="2124155448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2556,241 +2932,88 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Número de processos</a:t>
+                  <a:t>Número de threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.404969835637742"/>
-              <c:y val="0.824458908040861"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2119965560"/>
-        <c:crossesAt val="0.01"/>
+        <c:crossAx val="2124121672"/>
+        <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119965560"/>
+        <c:axId val="2124121672"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Tempo (s)</a:t>
+                  <a:t>Tempo(s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.0106241690979562"/>
-              <c:y val="0.404535990137648"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2119959144"/>
+        <c:crossAx val="2124155448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2830,6 +3053,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2846,94 +3070,10 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Tempo ideal</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cmpd="sng">
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-D0FF-43BB-8365-5A1A6C7864B0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:numRef>
-              <c:f>'CacheLvL3-662'!$B$6:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'CacheLvL3-662'!$O$6:$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D0FF-43BB-8365-5A1A6C7864B0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Tempo de execução</c:v>
+            <c:v>32 Processos</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2970,6 +3110,358 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>'CacheLvL3-662'!$N$61:$N$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00179895595430862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000526074654936645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000258956734570371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000139256722163509</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.46996230937571E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>24 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-662'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-662'!$N$50:$N$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.852092556854732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.292675714930936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.195641738699805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0938633914745242</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.066568602719316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0499356167816226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>16 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-662'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-662'!$N$39:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.886667579242922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.313708882644125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.203682442364029</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.105677879157637</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0672218447826249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0528628475121847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-662'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-662'!$N$28:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.888797771496373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.372250575563892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.252018625416369</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.135198696756041</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0897797442127394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.067419871545651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-662'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-662'!$N$17:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.927972027972028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.460119467333739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.334244961583395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.176915657005846</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.129531433535275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0976226449239547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-662'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>'CacheLvL3-662'!$N$6:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
@@ -2999,11 +3491,70 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D0FF-43BB-8365-5A1A6C7864B0}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-662'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-662'!$O$6:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3015,11 +3566,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120009256"/>
-        <c:axId val="2120015672"/>
+        <c:axId val="2093149752"/>
+        <c:axId val="2093143304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120009256"/>
+        <c:axId val="2093149752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,7 +3597,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Número de processos</a:t>
+                  <a:t>Número de Threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3105,7 +3656,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120015672"/>
+        <c:crossAx val="2093143304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3113,7 +3664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120015672"/>
+        <c:axId val="2093143304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3207,7 +3758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120009256"/>
+        <c:crossAx val="2093149752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3227,8 +3778,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.37408463717704"/>
           <c:y val="0.881193405781484"/>
-          <c:w val="0.402566562268586"/>
-          <c:h val="0.0849620731501354"/>
+          <c:w val="0.580046061973056"/>
+          <c:h val="0.118806471383465"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3270,306 +3821,450 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="5"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Tempo de Execução</a:t>
+              <a:t>Tempo de execução</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.433962378579443"/>
-          <c:y val="0.0175208035399197"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2 Nodes</c:v>
+            <c:v>32 Processos</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]RAM-641'!$B$22:$B$28</c:f>
+              <c:f>'CacheLvL3-662'!$B$50:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]RAM-641'!$P$22:$P$28</c:f>
+              <c:f>'CacheLvL3-662'!$K$61:$K$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.334688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>186.045689</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>636.198678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1292.447561</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>2403.388467</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>3534.206252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>1 Node</c:v>
+            <c:v>24 Processos</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]RAM-641'!$B$22:$B$28</c:f>
+              <c:f>'CacheLvL3-662'!$B$50:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]RAM-641'!$P$6:$P$12</c:f>
+              <c:f>'CacheLvL3-662'!$K$50:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.270219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.317124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.923271</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1.381193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>2.878854</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>4.059256</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>5.411348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Ideal</c:v>
+            <c:v>16 Processos</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]RAM-641'!$B$22:$B$28</c:f>
+              <c:f>'CacheLvL3-662'!$B$50:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]RAM-641'!$R$22:$R$28</c:f>
+              <c:f>'CacheLvL3-662'!$K$39:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.278528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.314129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.887855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1.367462</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>2.635632</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>4.143415</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>5.26888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-662'!$B$50:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-662'!$K$28:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.346824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.390217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.931695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.376184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.565291</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.863054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.14424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-662'!$B$50:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-662'!$K$17:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.513549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.116121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.536445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.90279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.964667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.260552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL3-662'!$B$50:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL3-662'!$K$6:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.901112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.939414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.51889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.889479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.107186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.375769</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.628663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3579,13 +4274,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2120082264"/>
-        <c:axId val="2120088680"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="2123944984"/>
+        <c:axId val="2113633320"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2120082264"/>
+        <c:axId val="2123944984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3594,253 +4288,94 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Número de processos</a:t>
+                  <a:t>Número de threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.44398436458145"/>
-              <c:y val="0.805562756672184"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2120088680"/>
-        <c:crossesAt val="0.001"/>
-        <c:auto val="0"/>
+        <c:crossAx val="2113633320"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120088680"/>
+        <c:axId val="2113633320"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
-          <c:max val="1000.0"/>
-          <c:min val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Tempo(segundos)</a:t>
+                  <a:t>Tempo(s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.0085294087918086"/>
-              <c:y val="0.321553651045744"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2120082264"/>
+        <c:crossAx val="2123944984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:minorUnit val="10.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.349502576762022"/>
-          <c:y val="0.909590202434966"/>
-          <c:w val="0.319732455347485"/>
-          <c:h val="0.0753933755704688"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3904,77 +4439,58 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2 Nodes</c:v>
+            <c:v>32 Processos</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]RAM-641'!$B$22:$B$28</c:f>
+              <c:f>'RAM-641'!$B$18:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]RAM-641'!$S$22:$S$28</c:f>
+              <c:f>'RAM-641'!$N$62:$N$65</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.691142955897127</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.221037294590662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0.085321530072626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3985,66 +4501,58 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Ideal</c:v>
+            <c:v>24 Processos</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]RAM-641'!$B$22:$B$28</c:f>
+              <c:f>'RAM-641'!$B$18:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]RAM-641'!$T$22:$T$25</c:f>
+              <c:f>'RAM-641'!$N$51:$N$54</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.249542940104989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0827363035560602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0377752584260979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4055,74 +4563,339 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>1 Node</c:v>
+            <c:v>16 Processos</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]RAM-641'!$B$22:$B$28</c:f>
+              <c:f>'RAM-641'!$B$18:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]RAM-641'!$S$6:$S$12</c:f>
+              <c:f>'RAM-641'!$N$40:$N$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.985545772868543</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.098154881685254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.094126442927118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.072361051225745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.015145531916212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.958247750648036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-641'!$B$18:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-641'!$N$29:$N$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98235211518171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.040598042606998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.055913789137281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.044211592964901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.019860971473683</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.990296611028134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-641'!$B$18:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-641'!$N$18:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.969831070741857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.009558379351693</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.002667364008834</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.003279134995243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.001360816869391</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.987125506170574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-641'!$B$18:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-641'!$N$7:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.963589717376121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.981673037470127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.972131018797215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.961228492827417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.954066912119955</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.949739684973352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-641'!$B$18:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-641'!$O$6:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4139,11 +4912,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120132904"/>
-        <c:axId val="2120139320"/>
+        <c:axId val="2093024568"/>
+        <c:axId val="2093018136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120132904"/>
+        <c:axId val="2093024568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4170,7 +4943,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Número de processos</a:t>
+                  <a:t>Número de Threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4229,7 +5002,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120139320"/>
+        <c:crossAx val="2093018136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4237,7 +5010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120139320"/>
+        <c:axId val="2093018136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4331,7 +5104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120132904"/>
+        <c:crossAx val="2093024568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4385,91 +5158,56 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="5"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Tempo de Execução</a:t>
+              <a:t>Tempo de execução</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.433962378579443"/>
-          <c:y val="0.0175208035399197"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0784702892489195"/>
-          <c:y val="0.11245565401581"/>
-          <c:w val="0.908895140285924"/>
-          <c:h val="0.694052280422254"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1 node</c:v>
+            <c:v>32 Processos</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]RAM-662'!$B$6:$B$12</c:f>
+              <c:f>'RAM-641'!$B$40:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4499,56 +5237,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]RAM-662'!$P$6:$P$12</c:f>
+              <c:f>'RAM-641'!$K$62:$K$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>649.431485</c:v>
+                  <c:v>303.219924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>197.507382</c:v>
+                  <c:v>438.72244</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.55201199999998</c:v>
+                  <c:v>1371.804358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.926752</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48.366109</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45.371532</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62.674204</c:v>
+                  <c:v>3553.850051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Ideal</c:v>
+            <c:v>24 Processos</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]RAM-662'!$B$6:$B$12</c:f>
+              <c:f>'RAM-641'!$B$40:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4578,68 +5296,297 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]RAM-662'!$R$6:$R$12</c:f>
+              <c:f>'RAM-641'!$K$51:$K$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>649.431485</c:v>
+                  <c:v>95.93423</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>324.7157425</c:v>
+                  <c:v>384.439768</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>162.35787125</c:v>
+                  <c:v>1159.517961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.17893562499984</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40.5894678125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27.05964520833328</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.29473390625</c:v>
+                  <c:v>2539.604863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>2 nodes</c:v>
+            <c:v>16 Processos</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-641'!$B$40:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RAM-662'!#REF!</c:f>
+              <c:f>'RAM-641'!$K$40:$K$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>78.606302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.759159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.580342</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.843892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.302086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.43353</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.031293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-641'!$B$40:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-641'!$K$29:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>84.49597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.013934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.199432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.021656</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.918437</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.85047900000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.32390100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-641'!$B$40:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-641'!$K$18:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>119.444352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.159956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118.313467</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119.126598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119.053958</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.282031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>121.002194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-641'!$B$40:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-641'!$K$7:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>218.877004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>227.147509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>222.963243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225.151754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>227.705489</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>229.414731</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>230.459996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4649,13 +5596,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2119045592"/>
-        <c:axId val="2119051896"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="2123948504"/>
+        <c:axId val="2046243064"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2119045592"/>
+        <c:axId val="2123948504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4664,240 +5610,94 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Número de processos</a:t>
+                  <a:t>Número de threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.426583333829725"/>
-              <c:y val="0.842930456903348"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2119051896"/>
-        <c:crossesAt val="0.01"/>
+        <c:crossAx val="2046243064"/>
+        <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119051896"/>
+        <c:axId val="2046243064"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Tempo(segundos)</a:t>
+                  <a:t>Tempo(s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.0085294087918086"/>
-              <c:y val="0.321553651045744"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2119045592"/>
+        <c:crossAx val="2123948504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4941,6 +5741,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4970,76 +5771,28 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1 Node</c:v>
+            <c:v>32 Processos</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'[1]RAM-641'!$B$6:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]RAM-662'!$S$6:$S$12</c:f>
+              <c:f>'RAM-662'!$N$61:$N$64</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.288137782110847</c:v>
+                  <c:v>0.184078998683792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.94192964016637</c:v>
+                  <c:v>0.0526478833278717</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.32043549617816</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.42740812580148</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.31363360179242</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.3620220689201</c:v>
+                  <c:v>0.0253676384710158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5049,6 +5802,211 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>24 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-662'!$N$50:$N$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.051217723067563</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.135013937644636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.14217081146759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.037064282591078</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99907910609336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.945929507485529</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>16 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-662'!$N$39:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.994504283555338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.095956287302908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.116181907859957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.043267449325652</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.01938595946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.984982586649016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-662'!$N$28:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.966496527482743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.047724619177881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.07335243394839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.07041635311601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.008760144315907</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.993570708028501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-662'!$N$17:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.002828324892393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.037521935491788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.041209483201028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.038729777380036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.035604480281916</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.016585989608277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-662'!$N$6:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.963435548665153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.990533972240856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.974801738024227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.961736475152574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.948345708958026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.950224103407091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:v>Ideal</c:v>
           </c:tx>
@@ -5060,42 +6018,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'[1]RAM-641'!$B$6:$B$12</c:f>
+              <c:f>'RAM-641'!$O$6:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]RAM-662'!$T$6:$T$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -5104,45 +6032,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>2 Nodes</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'RAM-662'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5159,11 +6048,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2119094920"/>
-        <c:axId val="2119101224"/>
+        <c:axId val="2095556840"/>
+        <c:axId val="2095563144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2119094920"/>
+        <c:axId val="2095556840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5190,7 +6079,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Número de processos</a:t>
+                  <a:t>Número de Threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5249,7 +6138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119101224"/>
+        <c:crossAx val="2095563144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5257,7 +6146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119101224"/>
+        <c:axId val="2095563144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5351,7 +6240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119094920"/>
+        <c:crossAx val="2095556840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5365,16 +6254,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.394164821001021"/>
-          <c:y val="0.938738927860982"/>
-          <c:w val="0.312326923613585"/>
-          <c:h val="0.0612610721390179"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5409,6 +6289,554 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tempo de execução</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>32 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-662'!$B$61:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-662'!$K$61:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>62.881427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>341.600223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1194.377115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2478.804918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>24 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-662'!$B$61:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-662'!$K$50:$K$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50.535793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.073574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.524381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.24539</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.729663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.582374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.424481</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>16 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-662'!$B$61:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-662'!$K$39:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>54.072265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.371073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.337976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.443954</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.829725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.043957</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.896671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-662'!$B$61:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-662'!$K$28:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>71.944141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.438075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.667033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.02751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.211362</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.319373</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.409684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-662'!$B$61:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-662'!$K$17:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>114.983327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114.659034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110.82496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.4324623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110.696092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111.030156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113.10733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-662'!$B$61:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-662'!$K$6:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>236.654782</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245.63634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>238.916371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>242.77222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>246.070299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>249.544844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>249.051546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2126512136"/>
+        <c:axId val="-2128094232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2126512136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Número de threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2128094232"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2128094232"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126512136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5992,11 +7420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117214664"/>
-        <c:axId val="2117208232"/>
+        <c:axId val="2092056200"/>
+        <c:axId val="2092049752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117214664"/>
+        <c:axId val="2092056200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6082,7 +7510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117208232"/>
+        <c:crossAx val="2092049752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6090,7 +7518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117208232"/>
+        <c:axId val="2092049752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6184,7 +7612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117214664"/>
+        <c:crossAx val="2092056200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6272,13 +7700,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Tempo de execuç</a:t>
+              <a:t>Tempo de execução</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>ão</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6709,11 +8132,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2130190776"/>
-        <c:axId val="2130150728"/>
+        <c:axId val="2092001784"/>
+        <c:axId val="2091996136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2130190776"/>
+        <c:axId val="2092001784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6730,11 +8153,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>N</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>úmero de threads</a:t>
+                  <a:t>Número de threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6746,7 +8165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130150728"/>
+        <c:crossAx val="2091996136"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6754,7 +8173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130150728"/>
+        <c:axId val="2091996136"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6785,7 +8204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130190776"/>
+        <c:crossAx val="2092001784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7392,11 +8811,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117154408"/>
-        <c:axId val="2117147976"/>
+        <c:axId val="2091920008"/>
+        <c:axId val="2091913560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117154408"/>
+        <c:axId val="2091920008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7482,7 +8901,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117147976"/>
+        <c:crossAx val="2091913560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7490,7 +8909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117147976"/>
+        <c:axId val="2091913560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7584,7 +9003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117154408"/>
+        <c:crossAx val="2091920008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7677,7 +9096,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8104,11 +9522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2090069368"/>
-        <c:axId val="2090086616"/>
+        <c:axId val="2094501784"/>
+        <c:axId val="2094507416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2090069368"/>
+        <c:axId val="2094501784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8130,14 +9548,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090086616"/>
+        <c:crossAx val="2094507416"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8145,7 +9562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090086616"/>
+        <c:axId val="2094507416"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -8169,21 +9586,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090069368"/>
+        <c:crossAx val="2094501784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8773,11 +10188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2119662120"/>
-        <c:axId val="2119668536"/>
+        <c:axId val="2094584024"/>
+        <c:axId val="2094590456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2119662120"/>
+        <c:axId val="2094584024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8863,7 +10278,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119668536"/>
+        <c:crossAx val="2094590456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8871,7 +10286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119668536"/>
+        <c:axId val="2094590456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8965,7 +10380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119662120"/>
+        <c:crossAx val="2094584024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9482,11 +10897,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2096303336"/>
-        <c:axId val="-2117709320"/>
+        <c:axId val="2094632312"/>
+        <c:axId val="2094637944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2096303336"/>
+        <c:axId val="2094632312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9515,7 +10930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117709320"/>
+        <c:crossAx val="2094637944"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9523,7 +10938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117709320"/>
+        <c:axId val="2094637944"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -9554,7 +10969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2096303336"/>
+        <c:crossAx val="2094632312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9633,94 +11048,10 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Tempo ideal</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cmpd="sng">
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-38F9-439D-A077-FD60BE387169}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'CacheLvL2-662'!$O$6:$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-38F9-439D-A077-FD60BE387169}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Tempo de execução</c:v>
+            <c:v>32 Processos</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -9760,6 +11091,376 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>'CacheLvL2-662'!$N$61:$N$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0012446350953886</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000392683188355465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000194754581678083</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000104545567154938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.04516300744657E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.35517101737455E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>24 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL2-662'!$N$50:$N$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.813195653903618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23707997515355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15410661122271</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0762505958178766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0508517304116932</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0371221467669311</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>16 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL2-662'!$N$39:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.819579939150064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.233818851779674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.148484606015345</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.069292364372604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0507975458629932</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.037519010659448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL2-662'!$N$28:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.845454545454546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.250361698735784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.157026430471447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0793848354792561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0528678934651765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0385435729686076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL2-662'!$N$17:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.873345971208168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.280236325748907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.178115908742918</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0891597454221105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.057952116115959</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0430082183398889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2 Processos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>'CacheLvL2-662'!$N$6:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
@@ -9789,11 +11490,73 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-38F9-439D-A077-FD60BE387169}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CacheLvL2-662'!$O$6:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -9806,11 +11569,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2119782616"/>
-        <c:axId val="2119789048"/>
+        <c:axId val="2094696216"/>
+        <c:axId val="2094702648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2119782616"/>
+        <c:axId val="2094696216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9837,7 +11600,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Número de processos</a:t>
+                  <a:t>Número de Threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9896,7 +11659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119789048"/>
+        <c:crossAx val="2094702648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9904,7 +11667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119789048"/>
+        <c:axId val="2094702648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9998,7 +11761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119782616"/>
+        <c:crossAx val="2094696216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10018,8 +11781,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.37408463717704"/>
           <c:y val="0.881193405781484"/>
-          <c:w val="0.402566562268586"/>
-          <c:h val="0.0849620731501354"/>
+          <c:w val="0.580046061973056"/>
+          <c:h val="0.118806471383465"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10518,11 +12281,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2094976264"/>
-        <c:axId val="-2094971256"/>
+        <c:axId val="2045561688"/>
+        <c:axId val="2045567304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2094976264"/>
+        <c:axId val="2045561688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10551,7 +12314,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094971256"/>
+        <c:crossAx val="2045567304"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10559,7 +12322,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094971256"/>
+        <c:axId val="2045567304"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -10590,7 +12353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094976264"/>
+        <c:crossAx val="2045561688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10800,7 +12563,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10875,7 +12638,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10935,22 +12698,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>49211</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10973,25 +12736,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>188911</xdr:rowOff>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>168274</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11016,22 +12773,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>17461</xdr:rowOff>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>130174</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11054,25 +12811,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>422275</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>130174</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11097,19 +12848,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1409699</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>12699</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>546099</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11128,20 +12879,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>55562</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11165,20 +12916,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>758824</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>84136</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11197,20 +12948,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>106362</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11538,7 +13289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="Q93" sqref="Q93"/>
     </sheetView>
   </sheetViews>
@@ -17769,8 +19520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="K12" sqref="K6:K12"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19632,8 +21383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21503,8 +23254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="M94" sqref="M94"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -23359,8 +25110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -25085,7 +26836,9 @@
       <c r="B66" s="6">
         <v>16</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -25183,8 +26936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P60" sqref="P60"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="Z54" sqref="Z54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/gráficosNodes2.xlsx
+++ b/gráficosNodes2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="714"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="714" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="19KBytes-641" sheetId="6" r:id="rId1"/>
@@ -17,9 +17,6 @@
     <sheet name="RAM-662" sheetId="9" r:id="rId8"/>
     <sheet name="Otimização do Compilador" sheetId="7" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="30">
   <si>
     <t>Repetição</t>
   </si>
@@ -122,26 +119,14 @@
     <t>NP=32</t>
   </si>
   <si>
-    <t>ERRO</t>
-  </si>
-  <si>
-    <t>ACABAR ESTE</t>
-  </si>
-  <si>
-    <t>Sem Tempo</t>
-  </si>
-  <si>
-    <t>Sem tempo</t>
-  </si>
-  <si>
-    <t>Walltime</t>
+    <t>Não Obtido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +153,13 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,7 +286,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="428">
+  <cellStyleXfs count="434">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -723,8 +715,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -793,6 +791,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -803,7 +804,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="428">
+  <cellStyles count="434">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1017,6 +1018,9 @@
     <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1230,6 +1234,9 @@
     <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="432" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="79"/>
   </cellStyles>
@@ -1286,420 +1293,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Tempo de execução</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.148463596391287"/>
-          <c:y val="0.108987634818539"/>
-          <c:w val="0.826564837738075"/>
-          <c:h val="0.652282481555241"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Tempo ideal</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'[1]19KBytes-641'!$B$21:$B$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]19KBytes-641'!$M$21:$M$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="1"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2092155352"/>
-        <c:axId val="2092162520"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2092155352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Número de processos</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.404969835637742"/>
-              <c:y val="0.824458908040861"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2092162520"/>
-        <c:crossesAt val="0.001"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2092162520"/>
-        <c:scaling>
-          <c:logBase val="10.0"/>
-          <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
-          <c:min val="0.001"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tempo (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.0106241690979562"/>
-              <c:y val="0.404535990137648"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2092155352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Speed Up</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1716,7 +1314,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>32 Processos</c:v>
@@ -1729,7 +1327,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
+              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1759,21 +1357,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL3-641'!$N$61:$N$64</c:f>
+              <c:f>'19KBytes-641'!$N$61:$N$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.438407586596648</c:v>
+                  <c:v>0.500244437350344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.131074056156276</c:v>
+                  <c:v>0.188323459459892</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.053467240592863</c:v>
+                  <c:v>0.0969957377655498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0438770212414366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0300396535320914</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0234687428375338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1781,7 +1388,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
             <c:v>24 Processos</c:v>
@@ -1794,7 +1401,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
+              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1824,24 +1431,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL3-641'!$N$50:$N$54</c:f>
+              <c:f>'19KBytes-641'!$N$50:$N$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00169704658517754</c:v>
+                  <c:v>0.00609590372084175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000533980876970185</c:v>
+                  <c:v>0.00202220451777173</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000242508251675754</c:v>
+                  <c:v>0.000926475869785951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000116262427560109</c:v>
+                  <c:v>0.000447175749307035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.000308733122781272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.000240923017500648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1862,7 +1475,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
+              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1892,7 +1505,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL3-641'!$N$39:$N$45</c:f>
+              <c:f>'19KBytes-641'!$N$39:$N$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1900,22 +1513,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.840233323682997</c:v>
+                  <c:v>0.702716732998789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.289181658824615</c:v>
+                  <c:v>0.175153329250304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.173450618336037</c:v>
+                  <c:v>0.0991513174600074</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0795117201174464</c:v>
+                  <c:v>0.0498951967426214</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0578890420012785</c:v>
+                  <c:v>0.0319875610055799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0438471524334971</c:v>
+                  <c:v>0.0242119634882875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1936,7 +1549,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
+              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1966,7 +1579,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL3-641'!$N$28:$N$34</c:f>
+              <c:f>'19KBytes-641'!$N$28:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1974,22 +1587,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.894101145711528</c:v>
+                  <c:v>0.764376996805112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35122717306886</c:v>
+                  <c:v>0.174674880219028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.228640394441313</c:v>
+                  <c:v>0.10008837479279</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.113884754712188</c:v>
+                  <c:v>0.0474644698436946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0758205203911613</c:v>
+                  <c:v>0.0315060691158218</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.055097341961833</c:v>
+                  <c:v>0.0237652676945083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2010,7 +1623,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
+              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2040,7 +1653,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL3-641'!$N$17:$N$23</c:f>
+              <c:f>'19KBytes-641'!$N$17:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2048,22 +1661,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.944310885366143</c:v>
+                  <c:v>0.756526493234316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.451897052830682</c:v>
+                  <c:v>0.162929892557523</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.321963448463347</c:v>
+                  <c:v>0.091339648173207</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.173430717567524</c:v>
+                  <c:v>0.0426458124662917</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.113491377094235</c:v>
+                  <c:v>0.0286974916266578</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0880705854895076</c:v>
+                  <c:v>0.0205519380459012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,7 +1697,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
+              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2114,7 +1727,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL3-641'!$N$6:$N$12</c:f>
+              <c:f>'19KBytes-641'!$N$6:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2122,22 +1735,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.966117747700956</c:v>
+                  <c:v>0.753822532147655</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.604065198943474</c:v>
+                  <c:v>0.140975329616425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.485302025505491</c:v>
+                  <c:v>0.0810134415070989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.289670577458338</c:v>
+                  <c:v>0.036817617962923</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.208425947708707</c:v>
+                  <c:v>0.0237251482947613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.162237317353472</c:v>
+                  <c:v>0.0175936046060215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,7 +1764,7 @@
             <c:v>Ideal</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="41275">
               <a:prstDash val="sysDot"/>
             </a:ln>
           </c:spPr>
@@ -2163,7 +1776,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
+              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2193,7 +1806,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL3-641'!$O$6:$O$8</c:f>
+              <c:f>'19KBytes-641'!$O$6:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2222,11 +1835,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2045683896"/>
-        <c:axId val="2045690264"/>
+        <c:axId val="2077781192"/>
+        <c:axId val="2076497384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2045683896"/>
+        <c:axId val="2077781192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2312,7 +1925,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2045690264"/>
+        <c:crossAx val="2076497384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2320,7 +1933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2045690264"/>
+        <c:axId val="2076497384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,7 +2027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2045683896"/>
+        <c:crossAx val="2077781192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2432,10 +2045,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37408463717704"/>
-          <c:y val="0.881193405781484"/>
-          <c:w val="0.581551371822467"/>
-          <c:h val="0.118806573920874"/>
+          <c:x val="0.154930193691276"/>
+          <c:y val="0.88119325158722"/>
+          <c:w val="0.580046061973056"/>
+          <c:h val="0.11880674841278"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2477,7 +2090,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2507,7 +2120,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2919,11 +2531,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2124155448"/>
-        <c:axId val="2124121672"/>
+        <c:axId val="2078705576"/>
+        <c:axId val="2078711208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2124155448"/>
+        <c:axId val="2078705576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2945,14 +2557,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124121672"/>
+        <c:crossAx val="2078711208"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2960,7 +2571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124121672"/>
+        <c:axId val="2078711208"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2984,21 +2595,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124155448"/>
+        <c:crossAx val="2078705576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3013,7 +2622,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3566,11 +3175,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2093149752"/>
-        <c:axId val="2093143304"/>
+        <c:axId val="2078787896"/>
+        <c:axId val="2078794312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2093149752"/>
+        <c:axId val="2078787896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3656,7 +3265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093143304"/>
+        <c:crossAx val="2078794312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3664,7 +3273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093143304"/>
+        <c:axId val="2078794312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3758,7 +3367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093149752"/>
+        <c:crossAx val="2078787896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3821,7 +3430,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4275,11 +3884,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2123944984"/>
-        <c:axId val="2113633320"/>
+        <c:axId val="2078838392"/>
+        <c:axId val="2078844024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2123944984"/>
+        <c:axId val="2078838392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4308,7 +3917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113633320"/>
+        <c:crossAx val="2078844024"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4316,7 +3925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113633320"/>
+        <c:axId val="2078844024"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4347,7 +3956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123944984"/>
+        <c:crossAx val="2078838392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4375,7 +3984,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4912,11 +4521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2093024568"/>
-        <c:axId val="2093018136"/>
+        <c:axId val="2078918232"/>
+        <c:axId val="2078924664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2093024568"/>
+        <c:axId val="2078918232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5002,7 +4611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093018136"/>
+        <c:crossAx val="2078924664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5010,7 +4619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093018136"/>
+        <c:axId val="2078924664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5104,7 +4713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093024568"/>
+        <c:crossAx val="2078918232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5158,7 +4767,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5597,11 +5206,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2123948504"/>
-        <c:axId val="2046243064"/>
+        <c:axId val="2078969128"/>
+        <c:axId val="2078974760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2123948504"/>
+        <c:axId val="2078969128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5630,7 +5239,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046243064"/>
+        <c:crossAx val="2078974760"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5638,7 +5247,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2046243064"/>
+        <c:axId val="2078974760"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5669,7 +5278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123948504"/>
+        <c:crossAx val="2078969128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5697,7 +5306,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5776,6 +5385,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-662'!$B$50:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'RAM-662'!$N$61:$N$64</c:f>
@@ -5808,6 +5447,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-662'!$B$50:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'RAM-662'!$N$50:$N$56</c:f>
@@ -5849,6 +5518,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-662'!$B$50:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'RAM-662'!$N$39:$N$45</c:f>
@@ -5890,6 +5589,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-662'!$B$50:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'RAM-662'!$N$28:$N$34</c:f>
@@ -5931,6 +5660,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-662'!$B$50:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'RAM-662'!$N$17:$N$23</c:f>
@@ -5972,6 +5731,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-662'!$B$50:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'RAM-662'!$N$6:$N$12</c:f>
@@ -6018,6 +5807,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RAM-662'!$B$50:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'RAM-641'!$O$6:$O$8</c:f>
@@ -6048,11 +5867,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2095556840"/>
-        <c:axId val="2095563144"/>
+        <c:axId val="2079041320"/>
+        <c:axId val="2079047752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2095556840"/>
+        <c:axId val="2079041320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6138,7 +5957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095563144"/>
+        <c:crossAx val="2079047752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6146,7 +5965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095563144"/>
+        <c:axId val="2079047752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6240,7 +6059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095556840"/>
+        <c:crossAx val="2079041320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6294,7 +6113,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6742,11 +6561,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2126512136"/>
-        <c:axId val="-2128094232"/>
+        <c:axId val="2079093528"/>
+        <c:axId val="2079099160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2126512136"/>
+        <c:axId val="2079093528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6775,7 +6594,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128094232"/>
+        <c:crossAx val="2079099160"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6783,7 +6602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128094232"/>
+        <c:axId val="2079099160"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6814,7 +6633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126512136"/>
+        <c:crossAx val="2079093528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6843,6 +6662,553 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tempo de execução</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>32 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'19KBytes-641'!$K$61:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>29.022637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.016911</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.110577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>299.215591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>661.454132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>966.144199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1236.650689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>24 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'19KBytes-641'!$K$50:$K$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.203025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.305152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.397857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>219.136846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>454.016123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>657.606797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>842.696568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>16 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'19KBytes-641'!$K$39:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.020305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.028895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.115927</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.204788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.406953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.634778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.838635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'19KBytes-641'!$K$28:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.109575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.191231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.403249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.607502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.805377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'19KBytes-641'!$K$17:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.016605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.021949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.101915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.181794</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38937</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.578622</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.807953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2 Processos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'19KBytes-641'!$K$6:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.011783</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.015631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.083582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.145445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.320037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.496646</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.669732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2077886968"/>
+        <c:axId val="2077892600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2077886968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Número de threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2077892600"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2077892600"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2077886968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6882,7 +7248,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.446962391513983"/>
+          <c:y val="0.027736498892568"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6899,7 +7272,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>32 Processos</c:v>
@@ -6912,7 +7285,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6942,7 +7315,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-641'!$N$61:$N$67</c:f>
+              <c:f>'19KBytes-662'!$N$61:$N$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6950,22 +7323,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.500244437350344</c:v>
+                  <c:v>0.00122806757634265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.188323459459892</c:v>
+                  <c:v>0.000357049887500441</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0969957377655498</c:v>
+                  <c:v>0.000177656966417141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0438770212414366</c:v>
+                  <c:v>9.58266429318557E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0300396535320914</c:v>
+                  <c:v>6.49275032537677E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0234687428375338</c:v>
+                  <c:v>4.86810359101149E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6973,7 +7346,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:v>24 Processos</c:v>
@@ -6986,7 +7359,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7016,7 +7389,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-641'!$N$50:$N$56</c:f>
+              <c:f>'19KBytes-662'!$N$50:$N$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7024,22 +7397,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00609590372084175</c:v>
+                  <c:v>0.748433143178737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00202220451777173</c:v>
+                  <c:v>0.21013581940544</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000926475869785951</c:v>
+                  <c:v>0.137065944568334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000447175749307035</c:v>
+                  <c:v>0.0682406066246358</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000308733122781272</c:v>
+                  <c:v>0.0429757043391404</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000240923017500648</c:v>
+                  <c:v>0.0297135486753975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7060,7 +7433,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7090,7 +7463,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-641'!$N$39:$N$45</c:f>
+              <c:f>'19KBytes-662'!$N$39:$N$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7098,22 +7471,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.702716732998789</c:v>
+                  <c:v>0.756591630334846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.175153329250304</c:v>
+                  <c:v>0.200861396974875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0991513174600074</c:v>
+                  <c:v>0.128978436180701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0498951967426214</c:v>
+                  <c:v>0.0609301703465209</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0319875610055799</c:v>
+                  <c:v>0.0410879694876325</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0242119634882875</c:v>
+                  <c:v>0.0314777385385741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7134,7 +7507,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7164,7 +7537,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-641'!$N$28:$N$34</c:f>
+              <c:f>'19KBytes-662'!$N$28:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7172,22 +7545,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.764376996805112</c:v>
+                  <c:v>0.73537783802101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.174674880219028</c:v>
+                  <c:v>0.190159481247809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10008837479279</c:v>
+                  <c:v>0.119688053255972</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0474644698436946</c:v>
+                  <c:v>0.0600804542648235</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0315060691158218</c:v>
+                  <c:v>0.0388469607681677</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0237652676945083</c:v>
+                  <c:v>0.0291300711841701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7208,7 +7581,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7238,7 +7611,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-641'!$N$17:$N$23</c:f>
+              <c:f>'19KBytes-662'!$N$17:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7246,22 +7619,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.756526493234316</c:v>
+                  <c:v>0.750247025809256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.162929892557523</c:v>
+                  <c:v>0.174141996091851</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.091339648173207</c:v>
+                  <c:v>0.109191732675261</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0426458124662917</c:v>
+                  <c:v>0.0531796571422168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0286974916266578</c:v>
+                  <c:v>0.0350999169746985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0205519380459012</c:v>
+                  <c:v>0.0256796336505746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7282,7 +7655,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7312,7 +7685,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-641'!$N$6:$N$12</c:f>
+              <c:f>'19KBytes-662'!$N$6:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7320,22 +7693,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.753822532147655</c:v>
+                  <c:v>0.757045284968145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.140975329616425</c:v>
+                  <c:v>0.14435652449902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0810134415070989</c:v>
+                  <c:v>0.0818136707604515</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.036817617962923</c:v>
+                  <c:v>0.0376503229821111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0237251482947613</c:v>
+                  <c:v>0.0244061298428312</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0175936046060215</c:v>
+                  <c:v>0.0180426155910632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7349,7 +7722,7 @@
             <c:v>Ideal</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="41275">
+            <a:ln w="34925">
               <a:prstDash val="sysDot"/>
             </a:ln>
           </c:spPr>
@@ -7361,7 +7734,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7391,7 +7764,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-641'!$O$6:$O$8</c:f>
+              <c:f>'19KBytes-662'!$O$6:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7420,11 +7793,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2092056200"/>
-        <c:axId val="2092049752"/>
+        <c:axId val="2077971096"/>
+        <c:axId val="2077977528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2092056200"/>
+        <c:axId val="2077971096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7451,7 +7824,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Número de Threads</a:t>
+                  <a:t>Número de processos</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7460,8 +7833,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.421789079643733"/>
-              <c:y val="0.776905977855157"/>
+              <c:x val="0.418033394331012"/>
+              <c:y val="0.797107354602558"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7510,7 +7883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092049752"/>
+        <c:crossAx val="2077977528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7518,7 +7891,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2092049752"/>
+        <c:axId val="2077977528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7612,7 +7985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092056200"/>
+        <c:crossAx val="2077971096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7630,10 +8003,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.154930193691276"/>
-          <c:y val="0.88119325158722"/>
-          <c:w val="0.580046061973056"/>
-          <c:h val="0.11880674841278"/>
+          <c:x val="0.268624970576846"/>
+          <c:y val="0.896650185965581"/>
+          <c:w val="0.648286775146356"/>
+          <c:h val="0.103349736070042"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7675,7 +8048,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7705,7 +8078,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7716,7 +8088,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>32 Processos</c:v>
@@ -7724,7 +8096,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7754,37 +8126,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-641'!$K$61:$K$67</c:f>
+              <c:f>'19KBytes-662'!$K$61:$K$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>29.022637</c:v>
+                  <c:v>0.036888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.016911</c:v>
+                  <c:v>30.037435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154.110577</c:v>
+                  <c:v>103.313294</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>299.215591</c:v>
+                  <c:v>207.636102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>661.454132</c:v>
+                  <c:v>384.945135</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>966.144199</c:v>
+                  <c:v>568.14136</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1236.650689</c:v>
+                  <c:v>757.748871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:v>24 Processos</c:v>
@@ -7792,7 +8164,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7822,30 +8194,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-641'!$K$50:$K$56</c:f>
+              <c:f>'19KBytes-662'!$K$50:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.203025</c:v>
+                  <c:v>0.029257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.305152</c:v>
+                  <c:v>0.039091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.397857</c:v>
+                  <c:v>0.139229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>219.136846</c:v>
+                  <c:v>0.213452</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>454.016123</c:v>
+                  <c:v>0.428733</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>657.606797</c:v>
+                  <c:v>0.68078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>842.696568</c:v>
+                  <c:v>0.984635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7860,7 +8232,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7890,30 +8262,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-641'!$K$39:$K$45</c:f>
+              <c:f>'19KBytes-662'!$K$39:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.020305</c:v>
+                  <c:v>0.02551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.028895</c:v>
+                  <c:v>0.033717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.115927</c:v>
+                  <c:v>0.127003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.204788</c:v>
+                  <c:v>0.197785</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.406953</c:v>
+                  <c:v>0.418676</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.634778</c:v>
+                  <c:v>0.620863</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.838635</c:v>
+                  <c:v>0.810414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7928,7 +8300,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7958,30 +8330,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-641'!$K$28:$K$34</c:f>
+              <c:f>'19KBytes-662'!$K$28:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.01914</c:v>
+                  <c:v>0.021701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02504</c:v>
+                  <c:v>0.02951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.109575</c:v>
+                  <c:v>0.11412</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.191231</c:v>
+                  <c:v>0.181313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.403249</c:v>
+                  <c:v>0.361199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.607502</c:v>
+                  <c:v>0.558628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.805377</c:v>
+                  <c:v>0.744969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7996,7 +8368,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8026,30 +8398,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-641'!$K$17:$K$23</c:f>
+              <c:f>'19KBytes-662'!$K$17:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.016605</c:v>
+                  <c:v>0.018982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.021949</c:v>
+                  <c:v>0.025301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.101915</c:v>
+                  <c:v>0.109003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.181794</c:v>
+                  <c:v>0.173841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38937</c:v>
+                  <c:v>0.356941</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.578622</c:v>
+                  <c:v>0.540799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.807953</c:v>
+                  <c:v>0.739185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8064,7 +8436,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-641'!$B$61:$B$67</c:f>
+              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8094,30 +8466,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-641'!$K$6:$K$12</c:f>
+              <c:f>'19KBytes-662'!$K$6:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.011783</c:v>
+                  <c:v>0.01319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.015631</c:v>
+                  <c:v>0.017423</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.083582</c:v>
+                  <c:v>0.091371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.145445</c:v>
+                  <c:v>0.16122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.320037</c:v>
+                  <c:v>0.350329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.496646</c:v>
+                  <c:v>0.540438</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.669732</c:v>
+                  <c:v>0.731047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8132,11 +8504,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2092001784"/>
-        <c:axId val="2091996136"/>
+        <c:axId val="2078019608"/>
+        <c:axId val="2078025240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2092001784"/>
+        <c:axId val="2078019608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8158,14 +8530,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091996136"/>
+        <c:crossAx val="2078025240"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8173,7 +8544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091996136"/>
+        <c:axId val="2078025240"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -8197,21 +8568,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092001784"/>
+        <c:crossAx val="2078019608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8226,7 +8595,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8266,14 +8635,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.446962391513983"/>
-          <c:y val="0.027736498892568"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8303,7 +8664,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8333,30 +8694,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-662'!$N$61:$N$67</c:f>
+              <c:f>'CacheLvL2-641'!$N$61:$N$66</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00122806757634265</c:v>
+                  <c:v>0.427386165598675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000357049887500441</c:v>
+                  <c:v>0.123335813744005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000177656966417141</c:v>
+                  <c:v>0.0512833377526743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.58266429318557E-5</c:v>
+                  <c:v>0.0227834584820242</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.49275032537677E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.86810359101149E-5</c:v>
+                  <c:v>0.0149663268936277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8377,7 +8735,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8407,7 +8765,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-662'!$N$50:$N$56</c:f>
+              <c:f>'CacheLvL2-641'!$N$50:$N$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8415,22 +8773,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.748433143178737</c:v>
+                  <c:v>0.00112684399156806</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21013581940544</c:v>
+                  <c:v>0.000356608763266276</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.137065944568334</c:v>
+                  <c:v>0.000162962094418997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0682406066246358</c:v>
+                  <c:v>7.81193315687017E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0429757043391404</c:v>
+                  <c:v>6.01360224759478E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0297135486753975</c:v>
+                  <c:v>4.16616101469242E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8451,7 +8809,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8481,7 +8839,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-662'!$N$39:$N$45</c:f>
+              <c:f>'CacheLvL2-641'!$N$39:$N$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8489,22 +8847,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.756591630334846</c:v>
+                  <c:v>0.807178068176533</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.200861396974875</c:v>
+                  <c:v>0.208247472156983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.128978436180701</c:v>
+                  <c:v>0.116641493774539</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0609301703465209</c:v>
+                  <c:v>0.0548396524486572</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0410879694876325</c:v>
+                  <c:v>0.0389219559478379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0314777385385741</c:v>
+                  <c:v>0.0282718679704132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8525,7 +8883,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8555,7 +8913,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-662'!$N$28:$N$34</c:f>
+              <c:f>'CacheLvL2-641'!$N$28:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8563,22 +8921,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73537783802101</c:v>
+                  <c:v>0.836706342198519</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.190159481247809</c:v>
+                  <c:v>0.222384589629416</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.119688053255972</c:v>
+                  <c:v>0.127143917776605</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0600804542648235</c:v>
+                  <c:v>0.0612757819734407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0388469607681677</c:v>
+                  <c:v>0.0409870479798009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0291300711841701</c:v>
+                  <c:v>0.0305956703955709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8599,7 +8957,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8629,7 +8987,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-662'!$N$17:$N$23</c:f>
+              <c:f>'CacheLvL2-641'!$N$17:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8637,22 +8995,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.750247025809256</c:v>
+                  <c:v>0.844505633624509</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.174141996091851</c:v>
+                  <c:v>0.248808780060237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.109191732675261</c:v>
+                  <c:v>0.150796566203439</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0531796571422168</c:v>
+                  <c:v>0.0698783464333227</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0350999169746985</c:v>
+                  <c:v>0.0462789362591468</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0256796336505746</c:v>
+                  <c:v>0.0355585268235911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8673,7 +9031,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8703,7 +9061,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-662'!$N$6:$N$12</c:f>
+              <c:f>'CacheLvL2-641'!$N$6:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8711,22 +9069,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.757045284968145</c:v>
+                  <c:v>0.916905389221557</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14435652449902</c:v>
+                  <c:v>0.310201091677579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0818136707604515</c:v>
+                  <c:v>0.201438031210666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0376503229821111</c:v>
+                  <c:v>0.0962447239986282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0244061298428312</c:v>
+                  <c:v>0.0632045559163709</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0180426155910632</c:v>
+                  <c:v>0.047449153122208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8740,7 +9098,7 @@
             <c:v>Ideal</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925">
+            <a:ln w="38100">
               <a:prstDash val="sysDot"/>
             </a:ln>
           </c:spPr>
@@ -8752,7 +9110,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8782,7 +9140,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-662'!$O$6:$O$8</c:f>
+              <c:f>'CacheLvL2-641'!$O$6:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8811,11 +9169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2091920008"/>
-        <c:axId val="2091913560"/>
+        <c:axId val="2076440232"/>
+        <c:axId val="2076433784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2091920008"/>
+        <c:axId val="2076440232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8842,7 +9200,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Número de processos</a:t>
+                  <a:t>Número de Threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8851,8 +9209,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.418033394331012"/>
-              <c:y val="0.797107354602558"/>
+              <c:x val="0.421789079643733"/>
+              <c:y val="0.776905977855157"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8901,7 +9259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091913560"/>
+        <c:crossAx val="2076433784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8909,7 +9267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091913560"/>
+        <c:axId val="2076433784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9003,7 +9361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091920008"/>
+        <c:crossAx val="2076440232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9021,10 +9379,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.268624970576846"/>
-          <c:y val="0.896650185965581"/>
-          <c:w val="0.648286775146356"/>
-          <c:h val="0.103349736070042"/>
+          <c:x val="0.37408463717704"/>
+          <c:y val="0.881193405781484"/>
+          <c:w val="0.575084162383894"/>
+          <c:h val="0.118806573920874"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9066,7 +9424,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9114,7 +9472,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9144,30 +9502,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-662'!$K$61:$K$67</c:f>
+              <c:f>'CacheLvL2-641'!$K$61:$K$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.036888</c:v>
+                  <c:v>42.41486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.037435</c:v>
+                  <c:v>99.242473</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.313294</c:v>
+                  <c:v>343.897354</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>207.636102</c:v>
+                  <c:v>827.069022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>384.945135</c:v>
+                  <c:v>1861.651515</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>568.14136</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>757.748871</c:v>
+                  <c:v>2834.019349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9182,7 +9537,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9212,30 +9567,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-662'!$K$50:$K$56</c:f>
+              <c:f>'CacheLvL2-641'!$K$50:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.029257</c:v>
+                  <c:v>0.098839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.039091</c:v>
+                  <c:v>87.713118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.139229</c:v>
+                  <c:v>277.163688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.213452</c:v>
+                  <c:v>606.515278</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.428733</c:v>
+                  <c:v>1265.231</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68078</c:v>
+                  <c:v>1643.590579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.984635</c:v>
+                  <c:v>2372.423909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9250,7 +9605,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9280,30 +9635,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-662'!$K$39:$K$45</c:f>
+              <c:f>'CacheLvL2-641'!$K$39:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.02551</c:v>
+                  <c:v>0.069427</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.033717</c:v>
+                  <c:v>0.086012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.127003</c:v>
+                  <c:v>0.333387</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.197785</c:v>
+                  <c:v>0.595217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.418676</c:v>
+                  <c:v>1.266</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.620863</c:v>
+                  <c:v>1.783749</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.810414</c:v>
+                  <c:v>2.455692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9318,7 +9673,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9348,30 +9703,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-662'!$K$28:$K$34</c:f>
+              <c:f>'CacheLvL2-641'!$K$28:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.021701</c:v>
+                  <c:v>0.071069</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02951</c:v>
+                  <c:v>0.084939</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11412</c:v>
+                  <c:v>0.319577</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.181313</c:v>
+                  <c:v>0.558965</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.361199</c:v>
+                  <c:v>1.159822</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.558628</c:v>
+                  <c:v>1.733938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.744969</c:v>
+                  <c:v>2.322845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9386,7 +9741,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9416,30 +9771,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-662'!$K$17:$K$23</c:f>
+              <c:f>'CacheLvL2-641'!$K$17:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.018982</c:v>
+                  <c:v>0.080049</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.025301</c:v>
+                  <c:v>0.094788</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.109003</c:v>
+                  <c:v>0.321729</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.173841</c:v>
+                  <c:v>0.530841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.356941</c:v>
+                  <c:v>1.145548</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.540799</c:v>
+                  <c:v>1.729707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.739185</c:v>
+                  <c:v>2.25119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9454,7 +9809,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes-662'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9484,30 +9839,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes-662'!$K$6:$K$12</c:f>
+              <c:f>'CacheLvL2-641'!$K$6:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.01319</c:v>
+                  <c:v>0.095702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.017423</c:v>
+                  <c:v>0.104375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.091371</c:v>
+                  <c:v>0.308516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16122</c:v>
+                  <c:v>0.475094</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.350329</c:v>
+                  <c:v>0.994361</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.540438</c:v>
+                  <c:v>1.514163</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.731047</c:v>
+                  <c:v>2.016938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9522,11 +9877,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2094501784"/>
-        <c:axId val="2094507416"/>
+        <c:axId val="2076391976"/>
+        <c:axId val="2076386328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2094501784"/>
+        <c:axId val="2076391976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9554,7 +9909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094507416"/>
+        <c:crossAx val="2076386328"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9562,7 +9917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094507416"/>
+        <c:axId val="2076386328"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -9592,7 +9947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094501784"/>
+        <c:crossAx val="2076391976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9613,7 +9968,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9653,7 +10008,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9683,7 +10037,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9713,27 +10067,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$N$61:$N$66</c:f>
+              <c:f>'CacheLvL2-662'!$N$61:$N$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.427386165598675</c:v>
+                  <c:v>0.0012446350953886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.123335813744005</c:v>
+                  <c:v>0.000392683188355465</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0512833377526743</c:v>
+                  <c:v>0.000194754581678083</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0227834584820242</c:v>
+                  <c:v>0.000104545567154938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0149663268936277</c:v>
+                  <c:v>7.04516300744657E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.35517101737455E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9754,7 +10111,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9784,7 +10141,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$N$50:$N$56</c:f>
+              <c:f>'CacheLvL2-662'!$N$50:$N$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9792,22 +10149,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00112684399156806</c:v>
+                  <c:v>0.813195653903618</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000356608763266276</c:v>
+                  <c:v>0.23707997515355</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000162962094418997</c:v>
+                  <c:v>0.15410661122271</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.81193315687017E-5</c:v>
+                  <c:v>0.0762505958178766</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.01360224759478E-5</c:v>
+                  <c:v>0.0508517304116932</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.16616101469242E-5</c:v>
+                  <c:v>0.0371221467669311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9828,7 +10185,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9858,7 +10215,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$N$39:$N$45</c:f>
+              <c:f>'CacheLvL2-662'!$N$39:$N$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9866,22 +10223,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.807178068176533</c:v>
+                  <c:v>0.819579939150064</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.208247472156983</c:v>
+                  <c:v>0.233818851779674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.116641493774539</c:v>
+                  <c:v>0.148484606015345</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0548396524486572</c:v>
+                  <c:v>0.069292364372604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0389219559478379</c:v>
+                  <c:v>0.0507975458629932</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0282718679704132</c:v>
+                  <c:v>0.037519010659448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9902,7 +10259,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9932,7 +10289,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$N$28:$N$34</c:f>
+              <c:f>'CacheLvL2-662'!$N$28:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9940,22 +10297,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.836706342198519</c:v>
+                  <c:v>0.845454545454546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.222384589629416</c:v>
+                  <c:v>0.250361698735784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.127143917776605</c:v>
+                  <c:v>0.157026430471447</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0612757819734407</c:v>
+                  <c:v>0.0793848354792561</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0409870479798009</c:v>
+                  <c:v>0.0528678934651765</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0305956703955709</c:v>
+                  <c:v>0.0385435729686076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9976,7 +10333,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10006,7 +10363,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$N$17:$N$23</c:f>
+              <c:f>'CacheLvL2-662'!$N$17:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10014,22 +10371,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.844505633624509</c:v>
+                  <c:v>0.873345971208168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.248808780060237</c:v>
+                  <c:v>0.280236325748907</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.150796566203439</c:v>
+                  <c:v>0.178115908742918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0698783464333227</c:v>
+                  <c:v>0.0891597454221105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0462789362591468</c:v>
+                  <c:v>0.057952116115959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0355585268235911</c:v>
+                  <c:v>0.0430082183398889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10050,7 +10407,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10080,7 +10437,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$N$6:$N$12</c:f>
+              <c:f>'CacheLvL2-662'!$N$6:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10088,22 +10445,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.916905389221557</c:v>
+                  <c:v>0.956494959834828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.310201091677579</c:v>
+                  <c:v>0.322776972730865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.201438031210666</c:v>
+                  <c:v>0.212398023559327</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0962447239986282</c:v>
+                  <c:v>0.10407634474068</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0632045559163709</c:v>
+                  <c:v>0.0674873437129883</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.047449153122208</c:v>
+                  <c:v>0.0502615209148354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10117,7 +10474,7 @@
             <c:v>Ideal</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100">
+            <a:ln>
               <a:prstDash val="sysDot"/>
             </a:ln>
           </c:spPr>
@@ -10129,7 +10486,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10159,7 +10516,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$O$6:$O$8</c:f>
+              <c:f>'CacheLvL2-662'!$O$6:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -10188,11 +10545,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094584024"/>
-        <c:axId val="2094590456"/>
+        <c:axId val="2076307000"/>
+        <c:axId val="2076300552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094584024"/>
+        <c:axId val="2076307000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10278,7 +10635,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094590456"/>
+        <c:crossAx val="2076300552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10286,7 +10643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094590456"/>
+        <c:axId val="2076300552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10380,7 +10737,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094584024"/>
+        <c:crossAx val="2076307000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10400,8 +10757,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.37408463717704"/>
           <c:y val="0.881193405781484"/>
-          <c:w val="0.575084162383894"/>
-          <c:h val="0.118806573920874"/>
+          <c:w val="0.580046061973056"/>
+          <c:h val="0.118806471383465"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10443,7 +10800,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10473,7 +10830,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10492,7 +10848,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10522,27 +10878,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$K$61:$K$66</c:f>
+              <c:f>'CacheLvL2-662'!$K$61:$K$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>42.41486</c:v>
+                  <c:v>0.11258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.242473</c:v>
+                  <c:v>90.452214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>343.897354</c:v>
+                  <c:v>286.694219</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>827.069022</c:v>
+                  <c:v>578.0608549999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1861.651515</c:v>
+                  <c:v>1076.851014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2834.019349</c:v>
+                  <c:v>1597.975801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2102.267129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10557,7 +10916,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10587,30 +10946,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$K$50:$K$56</c:f>
+              <c:f>'CacheLvL2-662'!$K$50:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.098839</c:v>
+                  <c:v>0.091983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.713118</c:v>
+                  <c:v>0.113113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>277.163688</c:v>
+                  <c:v>0.387983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>606.515278</c:v>
+                  <c:v>0.596879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1265.231</c:v>
+                  <c:v>1.206325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1643.590579</c:v>
+                  <c:v>1.808847</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2372.423909</c:v>
+                  <c:v>2.477847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10625,7 +10984,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10655,30 +11014,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$K$39:$K$45</c:f>
+              <c:f>'CacheLvL2-662'!$K$39:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.069427</c:v>
+                  <c:v>0.083507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.086012</c:v>
+                  <c:v>0.10189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.333387</c:v>
+                  <c:v>0.357144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.595217</c:v>
+                  <c:v>0.562395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.266</c:v>
+                  <c:v>1.20514</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.783749</c:v>
+                  <c:v>1.643918</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.455692</c:v>
+                  <c:v>2.225725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10693,7 +11052,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10723,30 +11082,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$K$28:$K$34</c:f>
+              <c:f>'CacheLvL2-662'!$K$28:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.071069</c:v>
+                  <c:v>0.083235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.084939</c:v>
+                  <c:v>0.09845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.319577</c:v>
+                  <c:v>0.332459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.558965</c:v>
+                  <c:v>0.53007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.159822</c:v>
+                  <c:v>1.0485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.733938</c:v>
+                  <c:v>1.574396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.322845</c:v>
+                  <c:v>2.159504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10761,7 +11120,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10791,30 +11150,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$K$17:$K$23</c:f>
+              <c:f>'CacheLvL2-662'!$K$17:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.080049</c:v>
+                  <c:v>0.093062</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.094788</c:v>
+                  <c:v>0.106558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.321729</c:v>
+                  <c:v>0.332084</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.530841</c:v>
+                  <c:v>0.52248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.145548</c:v>
+                  <c:v>1.043767</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.729707</c:v>
+                  <c:v>1.605843</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.25119</c:v>
+                  <c:v>2.163819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10829,7 +11188,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$B$61:$B$67</c:f>
+              <c:f>'CacheLvL2-662'!$B$61:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10859,30 +11218,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-641'!$K$6:$K$12</c:f>
+              <c:f>'CacheLvL2-662'!$K$6:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.095702</c:v>
+                  <c:v>0.110259</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.104375</c:v>
+                  <c:v>0.115274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.308516</c:v>
+                  <c:v>0.341595</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.475094</c:v>
+                  <c:v>0.519115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.994361</c:v>
+                  <c:v>1.059405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.514163</c:v>
+                  <c:v>1.633773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.016938</c:v>
+                  <c:v>2.193706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10897,11 +11256,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2094632312"/>
-        <c:axId val="2094637944"/>
+        <c:axId val="2076258104"/>
+        <c:axId val="2076252456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2094632312"/>
+        <c:axId val="2076258104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10923,14 +11282,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094637944"/>
+        <c:crossAx val="2076252456"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10938,7 +11296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094637944"/>
+        <c:axId val="2076252456"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -10962,21 +11320,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094632312"/>
+        <c:crossAx val="2076258104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10991,7 +11347,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11031,7 +11387,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11061,7 +11416,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
+              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11091,30 +11446,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-662'!$N$61:$N$67</c:f>
+              <c:f>'CacheLvL3-641'!$N$61:$N$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0012446350953886</c:v>
+                  <c:v>0.438407586596648</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000392683188355465</c:v>
+                  <c:v>0.131074056156276</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000194754581678083</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.000104545567154938</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.04516300744657E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.35517101737455E-5</c:v>
+                  <c:v>0.053467240592863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11135,7 +11481,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
+              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11165,30 +11511,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-662'!$N$50:$N$56</c:f>
+              <c:f>'CacheLvL3-641'!$N$50:$N$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.813195653903618</c:v>
+                  <c:v>0.00169704658517754</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23707997515355</c:v>
+                  <c:v>0.000533980876970185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15410661122271</c:v>
+                  <c:v>0.000242508251675754</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0762505958178766</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0508517304116932</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0371221467669311</c:v>
+                  <c:v>0.000116262427560109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11209,7 +11549,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
+              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11239,7 +11579,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-662'!$N$39:$N$45</c:f>
+              <c:f>'CacheLvL3-641'!$N$39:$N$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11247,22 +11587,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.819579939150064</c:v>
+                  <c:v>0.840233323682997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.233818851779674</c:v>
+                  <c:v>0.289181658824615</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.148484606015345</c:v>
+                  <c:v>0.173450618336037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.069292364372604</c:v>
+                  <c:v>0.0795117201174464</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0507975458629932</c:v>
+                  <c:v>0.0578890420012785</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.037519010659448</c:v>
+                  <c:v>0.0438471524334971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11283,7 +11623,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
+              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11313,7 +11653,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-662'!$N$28:$N$34</c:f>
+              <c:f>'CacheLvL3-641'!$N$28:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11321,22 +11661,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.845454545454546</c:v>
+                  <c:v>0.894101145711528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.250361698735784</c:v>
+                  <c:v>0.35122717306886</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.157026430471447</c:v>
+                  <c:v>0.228640394441313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0793848354792561</c:v>
+                  <c:v>0.113884754712188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0528678934651765</c:v>
+                  <c:v>0.0758205203911613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0385435729686076</c:v>
+                  <c:v>0.055097341961833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11357,7 +11697,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
+              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11387,7 +11727,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-662'!$N$17:$N$23</c:f>
+              <c:f>'CacheLvL3-641'!$N$17:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11395,22 +11735,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.873345971208168</c:v>
+                  <c:v>0.944310885366143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.280236325748907</c:v>
+                  <c:v>0.451897052830682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.178115908742918</c:v>
+                  <c:v>0.321963448463347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0891597454221105</c:v>
+                  <c:v>0.173430717567524</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.057952116115959</c:v>
+                  <c:v>0.113491377094235</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0430082183398889</c:v>
+                  <c:v>0.0880705854895076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11431,7 +11771,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
+              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11461,7 +11801,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-662'!$N$6:$N$12</c:f>
+              <c:f>'CacheLvL3-641'!$N$6:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11469,22 +11809,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.956494959834828</c:v>
+                  <c:v>0.966117747700956</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.322776972730865</c:v>
+                  <c:v>0.604065198943474</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.212398023559327</c:v>
+                  <c:v>0.485302025505491</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10407634474068</c:v>
+                  <c:v>0.289670577458338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0674873437129883</c:v>
+                  <c:v>0.208425947708707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0502615209148354</c:v>
+                  <c:v>0.162237317353472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11510,7 +11850,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'CacheLvL2-662'!$B$6:$B$12</c:f>
+              <c:f>'CacheLvL3-641'!$B$17:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11540,7 +11880,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CacheLvL2-662'!$O$6:$O$8</c:f>
+              <c:f>'CacheLvL3-641'!$O$6:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -11569,11 +11909,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094696216"/>
-        <c:axId val="2094702648"/>
+        <c:axId val="2078656552"/>
+        <c:axId val="2078662984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094696216"/>
+        <c:axId val="2078656552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11659,7 +11999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094702648"/>
+        <c:crossAx val="2078662984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11667,7 +12007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094702648"/>
+        <c:axId val="2078662984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11761,7 +12101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094696216"/>
+        <c:crossAx val="2078656552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11781,8 +12121,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.37408463717704"/>
           <c:y val="0.881193405781484"/>
-          <c:w val="0.580046061973056"/>
-          <c:h val="0.118806471383465"/>
+          <c:w val="0.581551371822467"/>
+          <c:h val="0.118806573920874"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -11824,591 +12164,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Tempo de execução</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>32 Processos</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'CacheLvL2-662'!$B$61:$B$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'CacheLvL2-662'!$K$61:$K$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.11258</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90.452214</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>286.694219</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>578.0608549999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1076.851014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1597.975801</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2102.267129</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>24 Processos</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'CacheLvL2-662'!$B$61:$B$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'CacheLvL2-662'!$K$50:$K$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.091983</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.113113</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.387983</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.596879</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.206325</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.808847</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.477847</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>16 Processos</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'CacheLvL2-662'!$B$61:$B$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'CacheLvL2-662'!$K$39:$K$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.083507</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10189</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.357144</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.562395</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.20514</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.643918</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.225725</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>8 Processos</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'CacheLvL2-662'!$B$61:$B$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'CacheLvL2-662'!$K$28:$K$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.083235</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.09845</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.332459</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.53007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0485</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.574396</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.159504</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>4 Processos</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'CacheLvL2-662'!$B$61:$B$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'CacheLvL2-662'!$K$17:$K$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.093062</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.106558</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.332084</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52248</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.043767</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.605843</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.163819</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>2 Processos</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'CacheLvL2-662'!$B$61:$B$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'CacheLvL2-662'!$K$6:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.110259</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.115274</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.341595</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.519115</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.059405</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.633773</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.193706</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2045561688"/>
-        <c:axId val="2045567304"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2045561688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Número de threads</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2045567304"/>
-        <c:crossesAt val="0.0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2045567304"/>
-        <c:scaling>
-          <c:logBase val="2.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tempo(s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2045561688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>93661</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -12435,7 +12192,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12465,7 +12222,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12563,7 +12320,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12638,7 +12395,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12713,7 +12470,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12773,22 +12530,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
+      <xdr:colOff>327024</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>422275</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>130174</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>165099</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12979,25 +12736,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="RAM-662"/>
-      <sheetName val="19KBytes-641"/>
-      <sheetName val="19KBytes-662"/>
-      <sheetName val="RAM-641"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13289,8 +13027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Q93" sqref="Q93"/>
+    <sheetView topLeftCell="A32" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13323,13 +13061,13 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1">
       <c r="B4" s="4" t="s">
@@ -13653,13 +13391,13 @@
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="2:18" ht="15" thickBot="1">
       <c r="B15" s="4" t="s">
@@ -13949,13 +13687,13 @@
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="2:14" ht="15" thickBot="1">
       <c r="B26" s="4" t="s">
@@ -14245,13 +13983,13 @@
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" spans="2:14" ht="15" thickBot="1">
       <c r="B37" s="4" t="s">
@@ -14541,13 +14279,13 @@
       <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
     </row>
     <row r="48" spans="2:14" ht="15" thickBot="1">
       <c r="B48" s="4" t="s">
@@ -14837,13 +14575,13 @@
       <c r="B58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
     </row>
     <row r="59" spans="2:14" ht="15" thickBot="1">
       <c r="B59" s="4" t="s">
@@ -15152,8 +14890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15199,13 +14937,13 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -15687,13 +15425,13 @@
         <v>24</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -16090,13 +15828,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -16520,13 +16258,13 @@
         <v>26</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -16914,13 +16652,13 @@
         <v>27</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -17270,13 +17008,13 @@
         <v>28</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -17630,8 +17368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView topLeftCell="A27" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -17664,13 +17402,13 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1">
       <c r="B4" s="4" t="s">
@@ -17994,13 +17732,13 @@
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="2:18" ht="15" thickBot="1">
       <c r="B15" s="4" t="s">
@@ -18325,13 +18063,13 @@
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="2:18" ht="15" thickBot="1">
       <c r="B26" s="4" t="s">
@@ -18621,13 +18359,13 @@
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" spans="2:14" ht="15" thickBot="1">
       <c r="B37" s="4" t="s">
@@ -18917,13 +18655,13 @@
       <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
     </row>
     <row r="48" spans="2:14" ht="15" thickBot="1">
       <c r="B48" s="4" t="s">
@@ -19213,13 +18951,13 @@
       <c r="B58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
     </row>
     <row r="59" spans="2:14" ht="15" thickBot="1">
       <c r="B59" s="4" t="s">
@@ -19308,7 +19046,7 @@
         <v>100.871342</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" ref="J62:J67" si="20">AVERAGE(D62:H62)</f>
+        <f t="shared" ref="J62:J66" si="20">AVERAGE(D62:H62)</f>
         <v>100.04072820000002</v>
       </c>
       <c r="K62" s="2">
@@ -19356,7 +19094,7 @@
         <v>10.603714999999999</v>
       </c>
       <c r="N63" s="3">
-        <f t="shared" ref="N63:N67" si="23">$K$61/K63</f>
+        <f t="shared" ref="N63:N66" si="23">$K$61/K63</f>
         <v>0.12333581374400454</v>
       </c>
     </row>
@@ -19475,26 +19213,30 @@
       <c r="D67" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="J67" s="2" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K67" s="2">
-        <f>MIN(D67:H67)</f>
-        <v>0</v>
+      <c r="E67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="22"/>
         <v>1.3254643749999999</v>
       </c>
-      <c r="N67" s="3" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N67" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -19520,7 +19262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
@@ -19554,13 +19296,13 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1">
       <c r="B4" s="4" t="s">
@@ -19884,13 +19626,13 @@
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="2:18" ht="15" thickBot="1">
       <c r="B15" s="4" t="s">
@@ -20180,13 +19922,13 @@
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="2:14" ht="15" thickBot="1">
       <c r="B26" s="4" t="s">
@@ -20476,13 +20218,13 @@
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" spans="2:14" ht="15" thickBot="1">
       <c r="B37" s="4" t="s">
@@ -20772,13 +20514,13 @@
       <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
     </row>
     <row r="48" spans="2:14" ht="15" thickBot="1">
       <c r="B48" s="4" t="s">
@@ -21068,13 +20810,13 @@
       <c r="B58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
     </row>
     <row r="59" spans="2:14" ht="15" thickBot="1">
       <c r="B59" s="4" t="s">
@@ -21383,8 +21125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21417,13 +21159,13 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1">
       <c r="B4" s="4" t="s">
@@ -21750,13 +21492,13 @@
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="2:18" ht="15" thickBot="1">
       <c r="B15" s="4" t="s">
@@ -22083,13 +21825,13 @@
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="2:18" ht="15" thickBot="1">
       <c r="B26" s="4" t="s">
@@ -22379,13 +22121,13 @@
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" spans="2:14" ht="15" thickBot="1">
       <c r="B37" s="4" t="s">
@@ -22675,13 +22417,13 @@
       <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
     </row>
     <row r="48" spans="2:14" ht="15" thickBot="1">
       <c r="B48" s="4" t="s">
@@ -22770,11 +22512,11 @@
         <v>199.732832</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" ref="J51:J56" si="16">AVERAGE(D51:H51)</f>
+        <f t="shared" ref="J51:J54" si="16">AVERAGE(D51:H51)</f>
         <v>198.11213758</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" ref="K51:K55" si="17">MIN(D51:H51)</f>
+        <f t="shared" ref="K51:K54" si="17">MIN(D51:H51)</f>
         <v>193.909232</v>
       </c>
       <c r="M51" s="2">
@@ -22818,7 +22560,7 @@
         <v>8.2268250000000001E-2</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" ref="N52:N56" si="19">$K$50/K52</f>
+        <f t="shared" ref="N52:N54" si="19">$K$50/K52</f>
         <v>5.3398087697018482E-4</v>
       </c>
     </row>
@@ -22899,69 +22641,77 @@
         <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="J55" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="18"/>
         <v>1.3711375E-2</v>
       </c>
-      <c r="N55" s="3" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N55" s="3"/>
     </row>
     <row r="56" spans="2:14">
       <c r="B56" s="6">
         <v>32</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="J56" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K56" s="2">
-        <f>MIN(D56:H56)</f>
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="18"/>
         <v>1.028353125E-2</v>
       </c>
-      <c r="N56" s="3" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N56" s="3"/>
     </row>
     <row r="57" spans="2:14" ht="15" thickBot="1"/>
     <row r="58" spans="2:14" ht="15" thickBot="1">
       <c r="B58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
     </row>
     <row r="59" spans="2:14" ht="15" thickBot="1">
       <c r="B59" s="4" t="s">
@@ -23050,11 +22800,11 @@
         <v>234.56406000000001</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" ref="J62:J67" si="20">AVERAGE(D62:H62)</f>
+        <f t="shared" ref="J62:J64" si="20">AVERAGE(D62:H62)</f>
         <v>240.17608519999999</v>
       </c>
       <c r="K62" s="2">
-        <f t="shared" ref="K62:K66" si="21">MIN(D62:H62)</f>
+        <f t="shared" ref="K62:K64" si="21">MIN(D62:H62)</f>
         <v>224.45606100000001</v>
       </c>
       <c r="M62" s="2">
@@ -23098,7 +22848,7 @@
         <v>24.600809999999999</v>
       </c>
       <c r="N63" s="3">
-        <f t="shared" ref="N63:N67" si="23">$K$61/K63</f>
+        <f t="shared" ref="N63:N64" si="23">$K$61/K63</f>
         <v>0.13107405615627618</v>
       </c>
     </row>
@@ -23143,56 +22893,64 @@
         <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="J65" s="2" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K65" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="22"/>
         <v>6.1502024999999998</v>
       </c>
-      <c r="N65" s="3" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N65" s="3"/>
     </row>
     <row r="66" spans="2:14">
       <c r="B66" s="6">
         <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="J66" s="2" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K66" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="22"/>
         <v>4.1001349999999999</v>
       </c>
-      <c r="N66" s="3" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N66" s="3"/>
     </row>
     <row r="67" spans="2:14">
       <c r="B67" s="6">
@@ -23213,22 +22971,18 @@
       <c r="H67" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J67" s="2" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K67" s="2">
-        <f>MIN(D67:H67)</f>
-        <v>0</v>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="22"/>
         <v>3.0751012499999999</v>
       </c>
-      <c r="N67" s="3" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N67" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -23254,7 +23008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="D44" workbookViewId="0">
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
@@ -23288,13 +23042,13 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1">
       <c r="B4" s="4" t="s">
@@ -23621,13 +23375,13 @@
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="2:18" ht="15" thickBot="1">
       <c r="B15" s="4" t="s">
@@ -23917,13 +23671,13 @@
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="2:14" ht="15" thickBot="1">
       <c r="B26" s="4" t="s">
@@ -24213,13 +23967,13 @@
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" spans="2:14" ht="15" thickBot="1">
       <c r="B37" s="4" t="s">
@@ -24509,13 +24263,13 @@
       <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
     </row>
     <row r="48" spans="2:14" ht="15" thickBot="1">
       <c r="B48" s="4" t="s">
@@ -24805,13 +24559,13 @@
       <c r="B58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
     </row>
     <row r="59" spans="2:14" ht="15" thickBot="1">
       <c r="B59" s="4" t="s">
@@ -24865,11 +24619,11 @@
         <v>0.33990300000000001</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" ref="J61:J67" si="20">AVERAGE(D61:H61)</f>
+        <f t="shared" ref="J61:J66" si="20">AVERAGE(D61:H61)</f>
         <v>0.34052500000000008</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" ref="K61:K67" si="21">MIN(D61:H61)</f>
+        <f t="shared" ref="K61:K66" si="21">MIN(D61:H61)</f>
         <v>0.33468799999999999</v>
       </c>
       <c r="M61" s="1">
@@ -24948,7 +24702,7 @@
         <v>8.3671999999999996E-2</v>
       </c>
       <c r="N63" s="3">
-        <f t="shared" ref="N63:N67" si="23">$K$61/K63</f>
+        <f t="shared" ref="N63:N66" si="23">$K$61/K63</f>
         <v>5.2607465493664546E-4</v>
       </c>
     </row>
@@ -25064,27 +24818,33 @@
       <c r="B67" s="6">
         <v>32</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="J67" s="2" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K67" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
+      <c r="D67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="22"/>
         <v>1.0459E-2</v>
       </c>
-      <c r="N67" s="3" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N67" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -25110,8 +24870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6:O8"/>
+    <sheetView topLeftCell="A20" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -25150,13 +24910,13 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="35" customHeight="1" thickBot="1">
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
       <c r="O4" s="17" t="s">
         <v>5</v>
       </c>
@@ -25472,13 +25232,13 @@
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="2:19" ht="15" thickBot="1">
       <c r="B16" s="4" t="s">
@@ -25787,13 +25547,13 @@
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="2:15" ht="15" thickBot="1">
       <c r="B27" s="4" t="s">
@@ -26083,13 +25843,13 @@
       <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
     </row>
     <row r="38" spans="2:14" ht="15" thickBot="1">
       <c r="B38" s="4" t="s">
@@ -26379,13 +26139,13 @@
       <c r="B48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
     </row>
     <row r="49" spans="2:14" ht="15" thickBot="1">
       <c r="B49" s="4" t="s">
@@ -26474,11 +26234,11 @@
         <v>389.51023099999998</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" ref="J52:J57" si="16">AVERAGE(D52:H52)</f>
+        <f t="shared" ref="J52:J54" si="16">AVERAGE(D52:H52)</f>
         <v>389.12721260000001</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" ref="K52:K56" si="17">MIN(D52:H52)</f>
+        <f t="shared" ref="K52:K54" si="17">MIN(D52:H52)</f>
         <v>384.43976800000002</v>
       </c>
       <c r="M52" s="2">
@@ -26522,7 +26282,7 @@
         <v>23.9835575</v>
       </c>
       <c r="N53" s="3">
-        <f t="shared" ref="N53:N57" si="19">$K$51/K53</f>
+        <f t="shared" ref="N53:N54" si="19">$K$51/K53</f>
         <v>8.2736303556060223E-2</v>
       </c>
     </row>
@@ -26567,95 +26327,109 @@
         <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="J55" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="18"/>
         <v>5.995889375</v>
       </c>
-      <c r="N55" s="3" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N55" s="3"/>
     </row>
     <row r="56" spans="2:14">
       <c r="B56" s="6">
         <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="J56" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K56" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="18"/>
         <v>3.9972595833333333</v>
       </c>
-      <c r="N56" s="3" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N56" s="3"/>
     </row>
     <row r="57" spans="2:14">
       <c r="B57" s="6">
         <v>32</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="J57" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K57" s="2">
-        <f>MIN(D57:H57)</f>
-        <v>0</v>
+      <c r="D57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="18"/>
         <v>2.9979446875</v>
       </c>
-      <c r="N57" s="3" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N57" s="3"/>
     </row>
     <row r="58" spans="2:14" ht="15" thickBot="1"/>
     <row r="59" spans="2:14" ht="15" thickBot="1">
       <c r="B59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
     </row>
     <row r="60" spans="2:14" ht="15" thickBot="1">
       <c r="B60" s="4" t="s">
@@ -26744,11 +26518,11 @@
         <v>454.72095100000001</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" ref="J63:J68" si="20">AVERAGE(D63:H63)</f>
+        <f t="shared" ref="J63:J65" si="20">AVERAGE(D63:H63)</f>
         <v>449.66721240000004</v>
       </c>
       <c r="K63" s="2">
-        <f t="shared" ref="K63:K67" si="21">MIN(D63:H63)</f>
+        <f t="shared" ref="K63:K65" si="21">MIN(D63:H63)</f>
         <v>438.72244000000001</v>
       </c>
       <c r="M63" s="2">
@@ -26792,7 +26566,7 @@
         <v>75.804980999999998</v>
       </c>
       <c r="N64" s="3">
-        <f t="shared" ref="N64:N68" si="23">$K$62/K64</f>
+        <f t="shared" ref="N64:N65" si="23">$K$62/K64</f>
         <v>0.22103729459066201</v>
       </c>
     </row>
@@ -26836,81 +26610,97 @@
       <c r="B66" s="6">
         <v>16</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="J66" s="2" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K66" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
+      <c r="D66" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="22"/>
         <v>18.951245249999999</v>
       </c>
-      <c r="N66" s="3" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N66" s="3"/>
     </row>
     <row r="67" spans="2:14">
       <c r="B67" s="6">
         <v>24</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="J67" s="2" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K67" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
+      <c r="D67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="22"/>
         <v>12.6341635</v>
       </c>
-      <c r="N67" s="3" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N67" s="3"/>
     </row>
     <row r="68" spans="2:14">
       <c r="B68" s="6">
         <v>32</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="J68" s="2" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K68" s="2">
-        <f>MIN(D57:H57)</f>
-        <v>0</v>
+      <c r="D68" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K68" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="22"/>
         <v>9.4756226249999997</v>
       </c>
-      <c r="N68" s="3" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N68" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -26936,8 +26726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="Z54" sqref="Z54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="X58" sqref="X58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -26983,13 +26773,13 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -27408,13 +27198,13 @@
         <v>24</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -27795,9 +27585,7 @@
     </row>
     <row r="24" spans="1:24" ht="16" thickBot="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -27821,13 +27609,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -28274,13 +28062,13 @@
         <v>26</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -28655,13 +28443,13 @@
         <v>27</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -29011,13 +28799,13 @@
         <v>28</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -29235,15 +29023,24 @@
         <v>16</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="2" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+      <c r="D65" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="21"/>
@@ -29254,25 +29051,31 @@
         <f t="shared" si="22"/>
         <v>3.9300891875000001</v>
       </c>
-      <c r="N65" s="3" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N65" s="3"/>
     </row>
     <row r="66" spans="2:14">
       <c r="B66" s="6">
         <v>24</v>
       </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="2" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+      <c r="D66" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="21"/>
@@ -29283,25 +29086,31 @@
         <f t="shared" si="22"/>
         <v>2.6200594583333334</v>
       </c>
-      <c r="N66" s="3" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N66" s="3"/>
     </row>
     <row r="67" spans="2:14">
       <c r="B67" s="6">
         <v>32</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="2" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+      <c r="D67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="K67" s="2">
         <f>MIN(D67:H67)</f>
@@ -29312,10 +29121,7 @@
         <f t="shared" si="22"/>
         <v>1.9650445937500001</v>
       </c>
-      <c r="N67" s="3" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N67" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -29361,13 +29167,13 @@
   <sheetData>
     <row r="2" spans="2:13" ht="15" thickBot="1"/>
     <row r="3" spans="2:13" ht="15" thickBot="1">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="2:13" ht="15" thickBot="1">
       <c r="D4" s="8">
